--- a/Файлы_xlsx/Оборотно-сальдовая ведомость по счету 91.02 за Март 2023 г. ООО  ПРОЖБИ ИНЖИНИРИНГ.xlsx
+++ b/Файлы_xlsx/Оборотно-сальдовая ведомость по счету 91.02 за Март 2023 г. ООО  ПРОЖБИ ИНЖИНИРИНГ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeyborovkov/Documents/Max/2023/Управленческая отчетность/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\borovkov\Report\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2274CDFB-D541-5A44-8655-B3782AF18BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -360,6 +359,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -375,32 +400,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,23 +493,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -546,23 +528,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -738,25 +703,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -764,7 +729,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -772,68 +737,68 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="2.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -852,8 +817,8 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -870,8 +835,8 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -886,8 +851,8 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -900,8 +865,8 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -915,10 +880,10 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -931,8 +896,8 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -946,12 +911,12 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
@@ -964,8 +929,8 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -979,12 +944,12 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
       </c>
@@ -997,8 +962,8 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1012,12 +977,12 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
@@ -1030,8 +995,8 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1045,12 +1010,12 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
       <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
@@ -1063,8 +1028,8 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1079,8 +1044,8 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
@@ -1093,8 +1058,8 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -1109,8 +1074,8 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
+    <row r="24" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
       <c r="B24" s="12" t="s">
         <v>13</v>
       </c>
@@ -1123,8 +1088,8 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -1138,12 +1103,12 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
       <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
@@ -1156,8 +1121,8 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -1171,12 +1136,12 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
+    <row r="28" spans="1:9" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
         <v>13</v>
       </c>
@@ -1189,8 +1154,8 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -1205,8 +1170,8 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:9" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
@@ -1219,8 +1184,8 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -1239,8 +1204,8 @@
       </c>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
+    <row r="32" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
       <c r="B32" s="16" t="s">
         <v>13</v>
       </c>
@@ -1259,19 +1224,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -1282,6 +1234,19 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
